--- a/medicine/Hématologie/Anémie_de_Fanconi/Anémie_de_Fanconi.xlsx
+++ b/medicine/Hématologie/Anémie_de_Fanconi/Anémie_de_Fanconi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’anémie de Fanconi est une maladie génétique rare faisant partie des syndromes d'insuffisance médullaire héréditaires (en anglais : Inherited Bone Marrow Failure syndromes). Elle touche les deux sexes et son diagnostic n'est souvent fait qu'au stade d'apparition de l'insuffisance médullaire ; l'évolution hématologique se fait vers une aplasie médullaire sévère ou une leucémie. Le seul traitement repose sur la greffe de moelle. Elle doit son nom au pédiatre suisse Guido Fanconi qui a décrit cette maladie.
 Le tableau clinique associe une petite taille, des malformations congénitales, des signes cutanés, l'apparition secondaire d'une insuffisance médullaire et un risque augmenté de leucémie et de cancer.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anémie de Fanconi s'appelle également pancytopénie congénitale de Fanconi ou anémie perniciosiforme infantile familiale (termes très peu usités actuellement).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Nosologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'anémie de Fanconi appartient à plusieurs groupes de maladies :
 les aplasies médullaires constitutionnelles ; c'est en pratique la plus fréquente d'entre elles
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anémie de Fanconi a été décrite par Guido Fanconi (1892-1979), grand pédiatre Suisse, qui a décrit cette maladie chez des enfants provenant de vallées alpines où la consanguinité (qui augmente la fréquence des maladies génétiques de transmission autosomique récessive), favorisée par l'isolement géographique, était fréquente ; la maladie a été initialement décrite chez 3 frères sous le nom d'« anémie pernicieuse » (terme qui à l'époque qualifiait les anémies ne répondant pas à un traitement par le fer)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anémie de Fanconi a été décrite par Guido Fanconi (1892-1979), grand pédiatre Suisse, qui a décrit cette maladie chez des enfants provenant de vallées alpines où la consanguinité (qui augmente la fréquence des maladies génétiques de transmission autosomique récessive), favorisée par l'isolement géographique, était fréquente ; la maladie a été initialement décrite chez 3 frères sous le nom d'« anémie pernicieuse » (terme qui à l'époque qualifiait les anémies ne répondant pas à un traitement par le fer).
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladie génétique de transmission autosomique récessive (sauf pour les très rares patients du type B), associée à une instabilité chromosomique, l'anémie de Fanconi (AF) est marquée par une grande hétérogénéité phénotypique. À cette hétérogénéité clinique, correspond également une hétérogénéité génétique. Le nombre de gènes Fanconi est en augmentation régulière et à ce jour on connaît 19 gènes dont des mutations sont responsables de la maladie. Il reste environ 5 % des patients pour lesquels nous n'avons pas encore connaissance du gène impliqué, ce qui induit que d'autres gènes peuvent être encore découvert.
 Ces gènes sont appelés FANCA, FANCB, FANCC, FANCD1  (également connu sous le nom BRCA2 ce gène est impliqué dans les cancers du sein familiaux), FANCD2, FANCE, FANCF, FANCG, FANCI, FANCJ (BRIP1), FANCL, FANCM, FANCN (PALB2), FANCP (SLX4), FANCS (BRCA1), RAD51C, and XPF. Ils sont tous portés par des autosomes, sauf le gène FANCB qui est porté par le chromosome X, expliquant pourquoi les patients de ce type sont tous des garçons ; c'est le seul groupe pour lequel la transmission est liée au sexe. Pour un malade donné, un seul gène est impliqué et les 2 copies du gène doivent chacune porter une mutation ; une de ces copies provient du père, l'autre de la mère.
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Incidence &amp; prévalence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anémie de Fanconi a été décrite dans tous les groupes ethniques, son incidence est estimée à 1/160 000 naissances[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anémie de Fanconi a été décrite dans tous les groupes ethniques, son incidence est estimée à 1/160 000 naissances.
 Comme pour toutes les maladies récessives, sa fréquence est augmentée en cas de consanguinité. Un effet fondateur peut ainsi être décelé pour des sous-groupes de population. Par exemple, pour les juifs ashkénazes de New York, le gène en cause est le plus souvent FANCC et certaines mutations de ce gène sont, dans cette population, identifiées avec une grande fréquence. De même une mutation bien précise du gène FANCA est trouvée chez la quasi-totalité des patients d'origine Boer en Afrique du Sud.
 </t>
         </is>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Il existe une très grande hétérogénéité phénotypique : le tableau clinique est très variable d'un patient à un autre et ceci est également vrai au sein d'une même famille.
 Les principaux signes cliniques sont :
@@ -695,7 +719,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +737,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est souvent évoqué cliniquement mais malheureusement, pour beaucoup de patients, il ne l'est qu'au stade de l'insuffisance médullaire.
 Devant un tableau d'aplasie médullaire de l'enfant, l'élévation de l'alpha-fœto-protéine sanguine et du taux d'hémoglobine fœtale sont des arguments pour une AF.
@@ -730,7 +756,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,10 +774,12 @@
           <t>Traitement &amp; prise en charge</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La greffe allogénique de cellules souches hématopoïétiques (CSH) reste à ce jour le seul traitement de l'anémie de Fanconi.
-Les CSH peuvent provenir de la moelle d'un donneur apparenté (frère ou sœur) ou non apparenté (donneur volontaire de moelle inscrit sur un fichier[3]) ; elles peuvent aussi provenir d'un sang de cordon qui peut être d'origine familiale ou non apparentée (banque de sang de cordons)[4].
+Les CSH peuvent provenir de la moelle d'un donneur apparenté (frère ou sœur) ou non apparenté (donneur volontaire de moelle inscrit sur un fichier) ; elles peuvent aussi provenir d'un sang de cordon qui peut être d'origine familiale ou non apparentée (banque de sang de cordons).
 La greffe corrige l'insuffisance médullaire et permet la survie des patients. Elle ne corrige pas, bien sûr, les autres manifestations. Elle ne met pas non plus à l'abri du développement de cancers. Les résultats de ces greffes, en particulier pour les greffes faites avec des donneurs non apparentés, s'améliorent actuellement grâce à l'utilisation de nouveaux conditionnements, à base de fludarabine, et sans cyclophosphamide ni irradiation.
 En cas d'impossibilité de réalisation d'une greffe, un traitement par androgènes peut corriger en partie l'insuffisance médullaire. Son effet est le plus souvent limité dans le temps ; par ailleurs la toxicité des androgènes est importante: virilisation et induction de tumeurs du foie.
 La prise en charge des patients fait par ailleurs intervenir de nombreux spécialistes d'organe qui vont traiter les conséquences des malformations existantes et assurer un suivi systématique, en particulier pour le dépistage in situ des cancers.
@@ -765,7 +793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
+          <t>Anémie_de_Fanconi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -785,11 +813,51 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode  de transmission
-Il s'agit d'une maladie à transmission autosomique récessive. Dans une famille où un patient est déjà atteint, les 2 parents sont a priori hétérozygotes c'est-à-dire que chacun d'entre eux a un allèle du gène impliqué muté, l'autre allèle étant normal. Le risque de naissance d'un autre enfant atteint est ainsi, à chaque naissance, de 1 sur 4.
+          <t>Mode  de transmission</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une maladie à transmission autosomique récessive. Dans une famille où un patient est déjà atteint, les 2 parents sont a priori hétérozygotes c'est-à-dire que chacun d'entre eux a un allèle du gène impliqué muté, l'autre allèle étant normal. Le risque de naissance d'un autre enfant atteint est ainsi, à chaque naissance, de 1 sur 4.
 À part, les exceptionnels patients du groupe B pour lesquels la transmission est liée au sexe (cf. supra). Seuls les garçons sont atteints, avec pour chaque garçon, 1 risque sur 2 d'être atteint; pour les filles, le risque d'hériter du chromosome X muté, et ainsi de devenir transmettrice (comme leur mère) est également de 1 sur 2.
-Diagnostic prénatal
-La gravité de cette maladie justifie un diagnostic prénatal pour les familles qui le souhaitent ; ceci implique qu'elles soient demandeuses d'une interruption de grossesse si l'enfant est atteint.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anémie_de_Fanconi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mie_de_Fanconi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gravité de cette maladie justifie un diagnostic prénatal pour les familles qui le souhaitent ; ceci implique qu'elles soient demandeuses d'une interruption de grossesse si l'enfant est atteint.
 Plusieurs approches sont possibles :
 la recherche de cassures chromosomiques sur le sang fœtal a été historiquement la première possibilité. Elle suppose un prélèvement de sang fœtal au niveau de la veine ombilicale. Ceci ne peut être fait que tardivement au cours de la grossesse et n'est pas dénué de risque pour la grossesse en cours ;
 dans les familles pour lesquelles on a eu le temps nécessaire pour étudier précisément la maladie et dans le cas favorable où le gène impliqué aura bien été identifié et les mutations causales déterminées de façon précise, un diagnostic moléculaire sur le fœtus devient possible. Celui-ci est faisable sur biopsie de trophoblastes (placenta) dès la 16e semaine d'aménorrhée.
@@ -798,31 +866,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>An%C3%A9mie_de_Fanconi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Hématologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/An%C3%A9mie_de_Fanconi</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anémie_de_Fanconi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mie_de_Fanconi</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Diagnostic pré-implantatoire</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Toujours dans les cas pour lesquels une mutation précise a été identifiée, et si celle-ci peut être techniquement détectée de manière fiable sur une seule cellule, le diagnostic pré-implantatoire est possible. Il faut alors réaliser une fécondation in vitro puis, généralement au stade où l'embryon a 4 cellules, prélever l'une d'entre elles et faire l'analyse génétique. On réimplante ensuite un embryon dont on est certain qu'il n'est pas atteint. Dans certains cas on peut également proposer ce qu'on appelle un "double tri": on sélectionnera un embryon non atteint et également identique sur le plan HLA à un enfant atteint de la fratrie qui est candidat à une greffe de moelle. Cette procédure, quand elle est possible, est généralement celle préférée par les familles. Il faut tenir compte néanmoins de l'âge de la mère car au-delà d'un certain âge il devient difficile d'obtenir assez d'ovocytes pour que cette approche soit réalisable.
 </t>
